--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A21D8C6-F0C9-8743-AF38-85581096893C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93499F63-3436-4141-AB70-1AA35F4B22DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="11320" windowWidth="35840" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10500" windowWidth="35840" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1498,10 +1498,10 @@
   <dimension ref="A1:AE991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2447,6 +2447,9 @@
         <v>201</v>
       </c>
       <c r="O22" s="2"/>
+      <c r="P22" s="24">
+        <v>0.69791666666666663</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>

--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93499F63-3436-4141-AB70-1AA35F4B22DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF73ED5-5C9B-A949-B2B6-826EB1AA7F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10500" windowWidth="35840" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1498,10 +1498,10 @@
   <dimension ref="A1:AE991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="24">
-        <v>0.69791666666666663</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF73ED5-5C9B-A949-B2B6-826EB1AA7F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE91555-04FD-E840-A0EA-DDEB66AAEDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -29,29 +29,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Quinn changed to in-peson per email Mar 1, 8:27 am
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">	-Robert Bruce Hull</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
@@ -118,55 +95,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">RSVP said online
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">	-Abigail Kahler
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Quinn Changed from in-person to online per Abigail comment
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">	-Robert Bruce Hull</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="305">
   <si>
     <t>RSVP</t>
   </si>
@@ -1093,6 +1027,9 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1EmUKO3QvxtruFoy-wt1kqB7212iOO9dj/edit</t>
+  </si>
+  <si>
+    <t>../PosterPDF_Pending.pdf</t>
   </si>
 </sst>
 </file>
@@ -1498,10 +1435,10 @@
   <dimension ref="A1:AE991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1600,10 +1537,10 @@
         <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>76</v>
@@ -1624,6 +1561,9 @@
         <v>79</v>
       </c>
       <c r="M2" s="7"/>
+      <c r="N2" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O2" s="17" t="s">
         <v>80</v>
       </c>
@@ -1644,7 +1584,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>82</v>
@@ -1664,7 +1604,9 @@
       <c r="L3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O3" s="10" t="s">
         <v>86</v>
       </c>
@@ -1683,7 +1625,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>17</v>
@@ -1706,7 +1648,9 @@
       <c r="L4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N4" s="9"/>
+      <c r="N4" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="24">
         <v>0.67708333333333337</v>
@@ -1726,10 +1670,10 @@
         <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>95</v>
@@ -1750,6 +1694,9 @@
         <v>94</v>
       </c>
       <c r="M5" s="7"/>
+      <c r="N5" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="8"/>
     </row>
@@ -1767,10 +1714,10 @@
         <v>101</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>102</v>
@@ -1791,6 +1738,9 @@
         <v>103</v>
       </c>
       <c r="M6" s="7"/>
+      <c r="N6" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O6" s="2" t="s">
         <v>105</v>
       </c>
@@ -1811,7 +1761,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>109</v>
@@ -1831,7 +1781,9 @@
       <c r="L7" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O7" s="3" t="s">
         <v>110</v>
       </c>
@@ -1872,6 +1824,9 @@
         <v>112</v>
       </c>
       <c r="M8" s="11"/>
+      <c r="N8" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="8">
         <v>0.66666666666666663</v>
@@ -1914,6 +1869,9 @@
       <c r="L9" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="N9" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1930,7 +1888,7 @@
         <v>127</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>17</v>
@@ -1953,7 +1911,9 @@
       <c r="L10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N10" s="9"/>
+      <c r="N10" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="24">
         <v>0.65625</v>
@@ -1971,7 +1931,7 @@
         <v>135</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>20</v>
@@ -1995,6 +1955,9 @@
         <v>134</v>
       </c>
       <c r="M11" s="7"/>
+      <c r="N11" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="8"/>
     </row>
@@ -2033,7 +1996,9 @@
       <c r="L12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N12" s="9"/>
+      <c r="N12" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2050,10 +2015,10 @@
         <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>147</v>
@@ -2074,6 +2039,9 @@
         <v>149</v>
       </c>
       <c r="M13" s="7"/>
+      <c r="N13" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="12"/>
     </row>
@@ -2091,10 +2059,10 @@
         <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>153</v>
@@ -2115,6 +2083,9 @@
         <v>155</v>
       </c>
       <c r="M14" s="7"/>
+      <c r="N14" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O14" s="3" t="s">
         <v>156</v>
       </c>
@@ -2134,7 +2105,7 @@
         <v>158</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>20</v>
@@ -2158,6 +2129,9 @@
         <v>161</v>
       </c>
       <c r="M15" s="7"/>
+      <c r="N15" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O15" s="3"/>
       <c r="P15" s="8"/>
     </row>
@@ -2195,6 +2169,9 @@
         <v>167</v>
       </c>
       <c r="M16" s="11"/>
+      <c r="N16" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O16" s="3" t="s">
         <v>168</v>
       </c>
@@ -2214,10 +2191,10 @@
         <v>171</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>172</v>
@@ -2238,6 +2215,9 @@
         <v>174</v>
       </c>
       <c r="M17" s="7"/>
+      <c r="N17" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O17" s="2" t="s">
         <v>176</v>
       </c>
@@ -2257,7 +2237,7 @@
         <v>181</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>25</v>
@@ -2281,6 +2261,9 @@
         <v>177</v>
       </c>
       <c r="M18" s="11"/>
+      <c r="N18" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="P18" s="8">
         <v>0.42708333333333331</v>
@@ -2321,7 +2304,9 @@
       <c r="L19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="N19" s="9"/>
+      <c r="N19" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2336,7 +2321,7 @@
         <v>188</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>22</v>
@@ -2358,6 +2343,9 @@
       </c>
       <c r="L20" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>192</v>
@@ -2380,7 +2368,7 @@
         <v>57</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>22</v>
@@ -2403,7 +2391,9 @@
       <c r="L21" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="N21" s="9"/>
+      <c r="N21" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O21" s="2" t="s">
         <v>198</v>
       </c>
@@ -2423,7 +2413,7 @@
         <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>17</v>
@@ -2445,6 +2435,9 @@
       </c>
       <c r="L22" s="17" t="s">
         <v>201</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="24">
@@ -2463,7 +2456,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>25</v>
@@ -2486,7 +2479,9 @@
       <c r="L23" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N23" s="9"/>
+      <c r="N23" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="24">
         <v>0.44791666666666669</v>
@@ -2507,7 +2502,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>213</v>
@@ -2526,6 +2521,9 @@
       </c>
       <c r="L24" s="2" t="s">
         <v>209</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>210</v>
@@ -2546,7 +2544,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>220</v>
@@ -2566,7 +2564,9 @@
       <c r="L25" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N25" s="9"/>
+      <c r="N25" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O25" s="2" t="s">
         <v>219</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>222</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
@@ -2606,7 +2606,9 @@
       <c r="L26" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="N26" s="9"/>
+      <c r="N26" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="24">
         <v>0.4375</v>
@@ -2647,7 +2649,9 @@
       <c r="L27" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="N27" s="9"/>
+      <c r="N27" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2685,7 +2689,9 @@
       <c r="L28" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="N28" s="9"/>
+      <c r="N28" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2700,10 +2706,10 @@
         <v>238</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>239</v>
@@ -2724,6 +2730,9 @@
         <v>242</v>
       </c>
       <c r="M29" s="13"/>
+      <c r="N29" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="8"/>
     </row>
@@ -2744,7 +2753,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>244</v>
@@ -2764,7 +2773,9 @@
       <c r="L30" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N30" s="9"/>
+      <c r="N30" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2804,7 +2815,9 @@
       <c r="L31" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="N31" s="9"/>
+      <c r="N31" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O31" s="3" t="s">
         <v>252</v>
       </c>
@@ -2823,7 +2836,7 @@
         <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
@@ -2847,6 +2860,9 @@
         <v>256</v>
       </c>
       <c r="M32" s="14"/>
+      <c r="N32" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O32" s="3"/>
       <c r="P32" s="15"/>
     </row>
@@ -2888,6 +2904,9 @@
         <v>261</v>
       </c>
       <c r="M33" s="16"/>
+      <c r="N33" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2927,7 +2946,9 @@
       <c r="L34" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="N34" s="9"/>
+      <c r="N34" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2942,7 +2963,7 @@
         <v>269</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>22</v>
@@ -2965,7 +2986,9 @@
       <c r="L35" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="N35" s="9"/>
+      <c r="N35" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" s="24">
         <v>0.57291666666666663</v>
@@ -2985,7 +3008,7 @@
         <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>22</v>
@@ -3009,6 +3032,9 @@
         <v>275</v>
       </c>
       <c r="M36" s="7"/>
+      <c r="N36" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" s="8">
         <v>0.60416666666666663</v>
@@ -3028,10 +3054,10 @@
         <v>280</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>281</v>
@@ -3052,6 +3078,9 @@
         <v>284</v>
       </c>
       <c r="M37" s="7"/>
+      <c r="N37" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O37" s="3"/>
       <c r="P37" s="8"/>
     </row>
@@ -3092,7 +3121,9 @@
       <c r="L38" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="N38" s="9"/>
+      <c r="N38" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3107,7 +3138,7 @@
         <v>292</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>25</v>
@@ -3129,6 +3160,9 @@
       </c>
       <c r="L39" s="2" t="s">
         <v>297</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="O39" s="17" t="s">
         <v>298</v>
@@ -3152,7 +3186,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>300</v>
@@ -3172,7 +3206,9 @@
       <c r="L40" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="N40" s="9"/>
+      <c r="N40" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE91555-04FD-E840-A0EA-DDEB66AAEDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9ABEA8-35DB-E546-9FC5-0106DBE8895C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1438,7 +1438,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9ABEA8-35DB-E546-9FC5-0106DBE8895C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F567E5-68B6-7D4E-BCBE-40EDAD1FF3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="304">
   <si>
     <t>RSVP</t>
   </si>
@@ -340,10 +340,6 @@
   </si>
   <si>
     <t>Biochar amendment is a soil health mitigation technique that has been proposed to provide positive impacts on greenhouse gas emissions and carbon sequestration. Biochar is composed of long chains of fused aromatic rings, therefore highly recalcitrant. Biochar’s multiple porous structures and larger surface area change soil moisture dynamics and make it easily adsorb other soil organic matter (SOM) and microbial enzymes, leading to the decreased accessibility of SOM by microbial communities. To date, there is still a lack of clear understanding about the effect of biochar addition on soil chemical and physical processes and the consequent impact on land-climate interactions. To address this knowledge gap, we incorporated biochar’s effects into the Community Land Model (CLM5.0) by parameterizing biochar as two distinct new pools – a recalcitrant lignin-like compound and a labile metabolic compound. The model will be calibrated using data from two corn-growing field sites – Boone County, Iowa, and Aurora, New York. We conducted a sensitivity analysis on how biochar addition affects crop yield, net ecosystem exchange (NEE), evapotranspiration (ET, and water use efficiency (WUE) by running the model under four different treatments: nitrogen fertilizer, biochar, biochar and nitrogen fertilizer, and control (no amendment).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yang Song
-</t>
   </si>
   <si>
     <t>The Arizona Streamgage Catalog (AZStreamCAT): A comprehensive compilation of locations and metadata for streamgages throughout Arizona</t>
@@ -1435,10 +1431,10 @@
   <dimension ref="A1:AE991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1562,11 +1558,9 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>80</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="O2" s="17"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1575,10 +1569,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -1587,28 +1581,28 @@
         <v>38</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1631,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -1640,16 +1634,16 @@
         <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="24">
@@ -1664,10 +1658,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1676,7 +1670,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>23</v>
@@ -1685,17 +1679,17 @@
         <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="8"/>
@@ -1708,10 +1702,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -1720,29 +1714,29 @@
         <v>38</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P6" s="8"/>
     </row>
@@ -1764,7 +1758,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
@@ -1773,19 +1767,19 @@
         <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>107</v>
-      </c>
       <c r="N7" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1794,10 +1788,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1806,26 +1800,26 @@
         <v>17</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="8">
@@ -1840,10 +1834,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -1852,25 +1846,25 @@
         <v>38</v>
       </c>
       <c r="G9" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="N9" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O9" s="2"/>
     </row>
@@ -1882,10 +1876,10 @@
         <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -1894,25 +1888,25 @@
         <v>17</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="24">
@@ -1925,10 +1919,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -1937,26 +1931,26 @@
         <v>20</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="8"/>
@@ -1967,10 +1961,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -1979,25 +1973,25 @@
         <v>38</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="N12" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O12" s="2"/>
     </row>
@@ -2021,7 +2015,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>18</v>
@@ -2030,17 +2024,17 @@
         <v>45</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="12"/>
@@ -2065,29 +2059,29 @@
         <v>38</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K14" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P14" s="8"/>
     </row>
@@ -2099,10 +2093,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
@@ -2111,26 +2105,26 @@
         <v>20</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>161</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="8"/>
@@ -2141,10 +2135,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -2153,7 +2147,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>18</v>
@@ -2162,18 +2156,18 @@
         <v>49</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P16" s="8">
         <v>0.59375</v>
@@ -2185,10 +2179,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -2197,7 +2191,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>28</v>
@@ -2206,20 +2200,20 @@
         <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" s="17" t="s">
         <v>173</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>174</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P17" s="8"/>
     </row>
@@ -2234,7 +2228,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
@@ -2243,26 +2237,26 @@
         <v>25</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="8">
@@ -2278,7 +2272,7 @@
         <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -2287,7 +2281,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>18</v>
@@ -2296,16 +2290,16 @@
         <v>45</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -2315,10 +2309,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>34</v>
@@ -2327,7 +2321,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>18</v>
@@ -2336,19 +2330,19 @@
         <v>40</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P20" s="24">
         <v>0.58333333333333337</v>
@@ -2374,28 +2368,28 @@
         <v>22</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="P21" s="24">
         <v>0.5625</v>
@@ -2407,7 +2401,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>54</v>
@@ -2419,7 +2413,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>18</v>
@@ -2428,16 +2422,16 @@
         <v>55</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="K22" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>201</v>
-      </c>
       <c r="N22" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="24">
@@ -2468,19 +2462,19 @@
         <v>18</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K23" s="20" t="s">
+      <c r="L23" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="N23" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="24">
@@ -2493,10 +2487,10 @@
         <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -2505,7 +2499,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>18</v>
@@ -2514,19 +2508,19 @@
         <v>73</v>
       </c>
       <c r="J24" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="L24" s="2" t="s">
+      <c r="N24" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2535,10 +2529,10 @@
         <v>50</v>
       </c>
       <c r="C25" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
@@ -2547,7 +2541,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>18</v>
@@ -2556,19 +2550,19 @@
         <v>45</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="L25" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="N25" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2577,10 +2571,10 @@
         <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>16</v>
@@ -2589,7 +2583,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>18</v>
@@ -2598,16 +2592,16 @@
         <v>45</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="L26" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="L26" s="17" t="s">
-        <v>226</v>
-      </c>
       <c r="N26" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="24">
@@ -2620,10 +2614,10 @@
         <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
@@ -2632,7 +2626,7 @@
         <v>38</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>18</v>
@@ -2641,16 +2635,16 @@
         <v>55</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O27" s="2"/>
     </row>
@@ -2672,7 +2666,7 @@
         <v>38</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>18</v>
@@ -2681,16 +2675,16 @@
         <v>55</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="L28" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="N28" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O28" s="2"/>
     </row>
@@ -2700,10 +2694,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -2712,26 +2706,26 @@
         <v>38</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="L29" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="8"/>
@@ -2744,7 +2738,7 @@
         <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>64</v>
@@ -2756,7 +2750,7 @@
         <v>38</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>18</v>
@@ -2765,16 +2759,16 @@
         <v>52</v>
       </c>
       <c r="J30" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K30" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="K30" s="20" t="s">
-        <v>247</v>
-      </c>
       <c r="L30" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O30" s="2"/>
     </row>
@@ -2786,7 +2780,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>46</v>
@@ -2798,7 +2792,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>18</v>
@@ -2810,16 +2804,16 @@
         <v>47</v>
       </c>
       <c r="K31" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="N31" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2842,7 +2836,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>18</v>
@@ -2851,17 +2845,17 @@
         <v>55</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="L32" s="17" t="s">
         <v>255</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>256</v>
       </c>
       <c r="M32" s="14"/>
       <c r="N32" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="15"/>
@@ -2877,7 +2871,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -2886,7 +2880,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>18</v>
@@ -2895,17 +2889,17 @@
         <v>26</v>
       </c>
       <c r="J33" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="L33" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="M33" s="16"/>
       <c r="N33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O33" s="3"/>
     </row>
@@ -2917,10 +2911,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -2929,7 +2923,7 @@
         <v>20</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>18</v>
@@ -2938,16 +2932,16 @@
         <v>55</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="L34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="N34" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O34" s="2"/>
     </row>
@@ -2957,10 +2951,10 @@
         <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>16</v>
@@ -2969,25 +2963,25 @@
         <v>22</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="L35" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="N35" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="24">
@@ -3014,26 +3008,26 @@
         <v>22</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="8">
@@ -3048,10 +3042,10 @@
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
@@ -3060,26 +3054,26 @@
         <v>38</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J37" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K37" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="L37" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="8"/>
@@ -3092,10 +3086,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -3104,25 +3098,25 @@
         <v>20</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J38" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K38" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="L38" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="N38" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O38" s="2"/>
     </row>
@@ -3132,10 +3126,10 @@
         <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
@@ -3144,28 +3138,28 @@
         <v>25</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J39" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="K39" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="L39" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="N39" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="O39" s="17" t="s">
         <v>297</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>298</v>
       </c>
       <c r="P39" s="8">
         <v>0.41666666666666669</v>
@@ -3189,25 +3183,25 @@
         <v>20</v>
       </c>
       <c r="G40" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K40" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="N40" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="O40" s="3"/>
     </row>

--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F567E5-68B6-7D4E-BCBE-40EDAD1FF3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414125E5-668B-E94E-AF71-20F09550AD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="305">
   <si>
     <t>RSVP</t>
   </si>
@@ -931,12 +931,6 @@
     <t>On the journey of understanding the boundary layer aerosols, clouds, precipitation and the earth’s radiation budget</t>
   </si>
   <si>
-    <t>https://docs.google.com/document/d/1VMi0ErQEuFBhzl-dQVkvt-dfHtt-givE/edit</t>
-  </si>
-  <si>
-    <t>Leading by Drs. Xiquan Dong and Baike Xi, our group currently consist of 8 students. The main research focuses of our group include investigating the boundary layer aerosol physicochemical properties, stratus and stratocumulus cloud macro- and micro-physical properties, aerosol-cloud interaction, and the warm rain processes, leveraging the multi-platform observations such as ground-based observation, aircraft in-situ measurements, and satellite remote sensing. Furthermore, we are also leading the development of a global surface radiation retrieval product, which will be utilized in NASA’s next-generation satellite mission: Libera. Our commitment and devotion are to bridge the gap between observation and climate modeling and to enhance our understanding of aerosols, clouds, radiation, and their interactions.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The tropical Madden-Julian oscillation (MJO) is an important source of subseasonal climate variability in the Northern Hemisphere.  It has recently been found that the stratospheric quasi-biennial oscillation (QBO) modulates the MJO in boreal winter such that the MJO is stronger and extends further eastward in the easterly QBO phase (QBOE) than in the westerly phase (QBOW).  One proposed mechanism for this modulation involves reductions of tropical lower stratospheric static stability during the QBOE phase relative to the QBOW phase, driven by a combination of increased extratropical wave forcing of the stratospheric residual meridional circulation during early winter and a northward shift of the zero-wind line (both components of the “Holton-Tan effect”).   It has further been shown recently using reconstructed MJO and QBO indices back to 1905 that the observed QBO-MJO modulation has only emerged since the early 1980s, coinciding with a cooling trend in the tropical lower stratosphere.  Here, we first confirm using meteorological reanalysis data and satellite outgoing longwave radiation data that significant negative trends in tropical lower stratospheric temperature and static stability have occurred over the 1974 to 2021 period when the QBO-MJO modulation has been emerging, an emergence we also confirm using an OLR-based MJO index.  We then show that these negative trends in temperature and stability are largely a consequence of positive trends in early-winter extratropical wave forcing.  The latter trends likely reflect increases in upward-propagating planetary-scale Rossby waves of zonal wavenumber 1, which are in turn caused by climate change in the troposphere. </t>
   </si>
   <si>
@@ -1026,6 +1020,16 @@
   </si>
   <si>
     <t>../PosterPDF_Pending.pdf</t>
+  </si>
+  <si>
+    <t>Leading by Drs. Xiquan Dong and Baike Xi, our group currently consist of 8 students. The main research focuses of our group include exploring the boundary layer aerosols, clouds and precipitation properties and processes using multi-platform observations. Furthermore, we are also leading the development of a global surface radiation retrieval product, which will be utilized in NASA’s next-generation satellite mission: Libera. Our commitment and devotion are to bridge the gap between observation and climate modeling and to enhance our understanding of aerosols, clouds, radiation, and their interactions.
+				Highly relevant to the interests of our group, my research focus centers on investigating the properties of marine boundary layer aerosols and clouds over the eastern North Atlantic region. Specifically, I aim to examine process-oriented aerosol-cloud-precipitation interactions, including the cloud microphysical responses to aerosol loadings, warm rain processes, and precipitation scavenging of aerosols. To achieve these objectives, I leverage a range of techniques, including ground-based observations, in-situ aircraft measurements, as well as the model simulation.</t>
+  </si>
+  <si>
+    <t>Baike Xi</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1NyIf6tCpo41s7DG92FTiFAaUvRqb5B2y/edit</t>
   </si>
 </sst>
 </file>
@@ -1431,10 +1435,10 @@
   <dimension ref="A1:AE991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1558,7 +1562,7 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O2" s="17"/>
       <c r="P2" s="8"/>
@@ -1599,7 +1603,7 @@
         <v>84</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>85</v>
@@ -1643,7 +1647,7 @@
         <v>88</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="24">
@@ -1689,7 +1693,7 @@
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="8"/>
@@ -1733,7 +1737,7 @@
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>104</v>
@@ -1776,7 +1780,7 @@
         <v>106</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>109</v>
@@ -1819,7 +1823,7 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="8">
@@ -1864,7 +1868,7 @@
         <v>123</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O9" s="2"/>
     </row>
@@ -1906,7 +1910,7 @@
         <v>127</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="24">
@@ -1950,7 +1954,7 @@
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="8"/>
@@ -1991,7 +1995,7 @@
         <v>139</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O12" s="2"/>
     </row>
@@ -2034,7 +2038,7 @@
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="12"/>
@@ -2078,7 +2082,7 @@
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>155</v>
@@ -2124,7 +2128,7 @@
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="8"/>
@@ -2164,7 +2168,7 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>167</v>
@@ -2210,7 +2214,7 @@
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>175</v>
@@ -2256,7 +2260,7 @@
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="8">
@@ -2299,7 +2303,7 @@
         <v>182</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -2339,7 +2343,7 @@
         <v>48</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>191</v>
@@ -2386,7 +2390,7 @@
         <v>193</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>197</v>
@@ -2431,7 +2435,7 @@
         <v>200</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="24">
@@ -2474,7 +2478,7 @@
         <v>206</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="24">
@@ -2517,7 +2521,7 @@
         <v>208</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>209</v>
@@ -2559,7 +2563,7 @@
         <v>217</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>218</v>
@@ -2601,7 +2605,7 @@
         <v>225</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="24">
@@ -2644,7 +2648,7 @@
         <v>226</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O27" s="2"/>
     </row>
@@ -2684,7 +2688,7 @@
         <v>235</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O28" s="2"/>
     </row>
@@ -2725,7 +2729,7 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="8"/>
@@ -2768,7 +2772,7 @@
         <v>244</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O30" s="2"/>
     </row>
@@ -2810,7 +2814,7 @@
         <v>250</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>251</v>
@@ -2855,7 +2859,7 @@
       </c>
       <c r="M32" s="14"/>
       <c r="N32" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="15"/>
@@ -2899,7 +2903,7 @@
       </c>
       <c r="M33" s="16"/>
       <c r="N33" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O33" s="3"/>
     </row>
@@ -2941,7 +2945,7 @@
         <v>266</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O34" s="2"/>
     </row>
@@ -2975,15 +2979,17 @@
         <v>271</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>273</v>
+        <v>304</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>302</v>
       </c>
       <c r="N35" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="O35" s="2"/>
       <c r="P35" s="24">
         <v>0.57291666666666663</v>
       </c>
@@ -3008,7 +3014,7 @@
         <v>22</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>18</v>
@@ -3017,17 +3023,17 @@
         <v>196</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="8">
@@ -3042,10 +3048,10 @@
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
@@ -3054,7 +3060,7 @@
         <v>38</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>18</v>
@@ -3063,17 +3069,17 @@
         <v>270</v>
       </c>
       <c r="J37" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="8"/>
@@ -3086,10 +3092,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -3098,7 +3104,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>18</v>
@@ -3107,16 +3113,16 @@
         <v>204</v>
       </c>
       <c r="J38" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="K38" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="N38" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O38" s="2"/>
     </row>
@@ -3126,10 +3132,10 @@
         <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
@@ -3138,28 +3144,28 @@
         <v>25</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="K39" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="L39" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="N39" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="O39" s="17" t="s">
         <v>295</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>297</v>
       </c>
       <c r="P39" s="8">
         <v>0.41666666666666669</v>
@@ -3183,25 +3189,25 @@
         <v>20</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L40" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="N40" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="O40" s="3"/>
     </row>
@@ -8161,19 +8167,18 @@
     <hyperlink ref="K33" r:id="rId46" xr:uid="{B5030F58-B5D9-A543-897A-EEC3D02CF413}"/>
     <hyperlink ref="G34" r:id="rId47" xr:uid="{DC642A13-CC22-3543-8ACF-C061497F8C6D}"/>
     <hyperlink ref="G35" r:id="rId48" xr:uid="{3C2905B7-315C-BE42-82DB-F4336881C34F}"/>
-    <hyperlink ref="K35" r:id="rId49" xr:uid="{CDCD820E-E21B-1742-B8E1-E630DE2779E6}"/>
-    <hyperlink ref="G36" r:id="rId50" xr:uid="{66F7F604-4839-EF4C-A19F-786B67D2A423}"/>
-    <hyperlink ref="K36" r:id="rId51" xr:uid="{4CA0490F-87C3-9C4F-B7EF-16C5F0E26368}"/>
-    <hyperlink ref="G37" r:id="rId52" xr:uid="{6403D623-867E-DF42-A4E3-3F9347F11A6A}"/>
-    <hyperlink ref="G38" r:id="rId53" xr:uid="{BC18AAF0-FF5E-5C4B-9F27-2E70651EA151}"/>
-    <hyperlink ref="K38" r:id="rId54" xr:uid="{54F97DE9-6A60-6242-B580-C05210E264BB}"/>
-    <hyperlink ref="G39" r:id="rId55" xr:uid="{6BBC478E-75C6-EF49-BBB1-5C0BF8EBB898}"/>
-    <hyperlink ref="K39" r:id="rId56" xr:uid="{00C2AAAF-9953-3041-80BC-44D4963FF62B}"/>
-    <hyperlink ref="G40" r:id="rId57" xr:uid="{7C583400-5C53-9448-BD11-0A1C277D6B7E}"/>
-    <hyperlink ref="K40" r:id="rId58" xr:uid="{FF7EB1E4-AC76-054E-BCB4-A75FEDAF0311}"/>
+    <hyperlink ref="G36" r:id="rId49" xr:uid="{66F7F604-4839-EF4C-A19F-786B67D2A423}"/>
+    <hyperlink ref="K36" r:id="rId50" xr:uid="{4CA0490F-87C3-9C4F-B7EF-16C5F0E26368}"/>
+    <hyperlink ref="G37" r:id="rId51" xr:uid="{6403D623-867E-DF42-A4E3-3F9347F11A6A}"/>
+    <hyperlink ref="G38" r:id="rId52" xr:uid="{BC18AAF0-FF5E-5C4B-9F27-2E70651EA151}"/>
+    <hyperlink ref="K38" r:id="rId53" xr:uid="{54F97DE9-6A60-6242-B580-C05210E264BB}"/>
+    <hyperlink ref="G39" r:id="rId54" xr:uid="{6BBC478E-75C6-EF49-BBB1-5C0BF8EBB898}"/>
+    <hyperlink ref="K39" r:id="rId55" xr:uid="{00C2AAAF-9953-3041-80BC-44D4963FF62B}"/>
+    <hyperlink ref="G40" r:id="rId56" xr:uid="{7C583400-5C53-9448-BD11-0A1C277D6B7E}"/>
+    <hyperlink ref="K40" r:id="rId57" xr:uid="{FF7EB1E4-AC76-054E-BCB4-A75FEDAF0311}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId59"/>
+  <legacyDrawing r:id="rId58"/>
 </worksheet>
 </file>
 

--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414125E5-668B-E94E-AF71-20F09550AD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB4C9C3-91CC-6344-AAD7-626B78768548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="313">
   <si>
     <t>RSVP</t>
   </si>
@@ -1031,12 +1031,132 @@
   <si>
     <t>https://docs.google.com/document/d/1NyIf6tCpo41s7DG92FTiFAaUvRqb5B2y/edit</t>
   </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Switzer</t>
+  </si>
+  <si>
+    <t>Influence of seasonal precipitation amounts on stream water source contributions</t>
+  </si>
+  <si>
+    <t>jeffasaurusrex@arizona.edu</t>
+  </si>
+  <si>
+    <r>
+      <t>The intermittent and perennial stretches of Cienega Creek and Davidson Canyon, designated as Arizona Outstanding Waters are two of a few remaining perennial streams in southern Arizona. These streams provide critical riparian habitat and groundwater recharge to the Tucson Basin metropolitan area. The streams are supported by groundwater and seasonal precipitation. Streamflow over the past 16 years has steadily decreased from ongoing drought conditions; a leading reason for this study. The changes in flow also are dependent on the previous year’s rainfall. Whether the streams have more overland flow or more groundwater flow is important, as it can determine the magnitude of the changes on the stream felt by climate change or groundwater extraction. Water from both streams was collected as grab samples during baseflow conditions and by automated samplers (ISCOs</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) during storm events. Water samples were analyzed for electrical conductivity, pH, major ion chemistry, and water isotopes (</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">O, </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">H, </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">H) to assess contribution percentages of precipitation and groundwater to stream flow. A comparison of EC and alkalinity of streamflow, groundwater and precipitation was conducted for the years of 2020, 2021, and 2022.  The alkalinity for the 2021 stream data in the monsoon season started at 2 meq/L and eventually rose to 8 meq/L while the 2022 monsoon season started at 6 meq/L and stayed there. The EC for 2021 started at 400 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202122"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>μs/cm and rose to between 1800-800 μs/cm and 2022 stayed around 1400 μs/cm the entire season</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. This also shows the magnitude of the previous year’s precipitation on the following year’s streamflow.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1Djzn_z46lndRUWX8U-dQSlCW0ZWu6H2Q/edit</t>
+  </si>
+  <si>
+    <t>Justin Headley</t>
+  </si>
+  <si>
+    <t>Dr. Jennifer C. McIntosh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1132,6 +1252,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFD1D2D3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202122"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1169,7 +1314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1213,6 +1358,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1435,10 +1582,10 @@
   <dimension ref="A1:AE991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3211,26 +3358,50 @@
       </c>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="2"/>
+      <c r="B41" s="2">
+        <v>57</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="L41" s="26" t="s">
+        <v>309</v>
+      </c>
       <c r="N41" s="9"/>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O41" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>

--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB4C9C3-91CC-6344-AAD7-626B78768548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519A4DA-FE8A-1A40-8114-67B51B36A3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="313">
   <si>
     <t>RSVP</t>
   </si>
@@ -1582,10 +1582,10 @@
   <dimension ref="A1:AE991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomRight" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3393,7 +3393,9 @@
       <c r="L41" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="N41" s="9"/>
+      <c r="N41" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="O41" s="26" t="s">
         <v>311</v>
       </c>

--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519A4DA-FE8A-1A40-8114-67B51B36A3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95903AF9-8AD5-5E4E-A7EA-3471DE4602CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="old references" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$O$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$O$52</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="306">
   <si>
     <t>RSVP</t>
   </si>
@@ -229,12 +229,6 @@
   </si>
   <si>
     <t>De la Fuente</t>
-  </si>
-  <si>
-    <t>Patricia</t>
-  </si>
-  <si>
-    <t>Puente</t>
   </si>
   <si>
     <t>Dr. P.A. Ty Ferré</t>
@@ -1002,21 +996,6 @@
   </si>
   <si>
     <t>Hoshin V. Gupta, Ty Ferré, Tao Liu, D. Philip Guertin</t>
-  </si>
-  <si>
-    <t>A Regional Case Study Exploring Evolving Surface Water Using Remote Sensing</t>
-  </si>
-  <si>
-    <t>ppuente@arizona.edu</t>
-  </si>
-  <si>
-    <t>Department of Mathematics - Applied Math, The University of Arizona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With the increase of extreme weather events, both in floods and droughts, we are seeing unprecedented water body changes. Surface water bodies such as lakes, rivers, and streams supply drinking water, irrigation for crops, and support local species. The “size” of the surface water bodies and surrounding vegetation (ie. riparian vegetation) can inform us about the current conditions of surface and subsurface water availability in the local watershed. Previous studies have used remote sensing products to map growing and shrinking of surface water bodies but these products either compromise temporal frequency for increased spatial resolution or vice versa. In this study we use Planet Labs daily satellite image dataset to quantify the changes of  surface water bodies to extreme natural events. </t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1EmUKO3QvxtruFoy-wt1kqB7212iOO9dj/edit</t>
   </si>
   <si>
     <t>../PosterPDF_Pending.pdf</t>
@@ -1579,13 +1558,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE991"/>
+  <dimension ref="A1:AE990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N45" sqref="N45"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1678,10 +1657,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -1690,26 +1669,26 @@
         <v>38</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O2" s="17"/>
       <c r="P2" s="8"/>
@@ -1720,10 +1699,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -1732,28 +1711,28 @@
         <v>38</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1764,10 +1743,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
@@ -1776,7 +1755,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -1785,16 +1764,16 @@
         <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="24">
@@ -1809,10 +1788,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1821,7 +1800,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>23</v>
@@ -1830,17 +1809,17 @@
         <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="8"/>
@@ -1853,10 +1832,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -1865,29 +1844,29 @@
         <v>38</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P6" s="8"/>
     </row>
@@ -1909,7 +1888,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
@@ -1918,19 +1897,19 @@
         <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1939,10 +1918,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1951,26 +1930,26 @@
         <v>17</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="L8" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="8">
@@ -1985,10 +1964,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -1997,25 +1976,25 @@
         <v>38</v>
       </c>
       <c r="G9" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="N9" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O9" s="2"/>
     </row>
@@ -2027,10 +2006,10 @@
         <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -2039,25 +2018,25 @@
         <v>17</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="K10" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="24">
@@ -2070,10 +2049,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -2082,26 +2061,26 @@
         <v>20</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="8"/>
@@ -2112,10 +2091,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -2124,25 +2103,25 @@
         <v>38</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O12" s="2"/>
     </row>
@@ -2166,26 +2145,26 @@
         <v>38</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="K13" s="20" t="s">
-        <v>149</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="12"/>
@@ -2198,10 +2177,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -2210,29 +2189,29 @@
         <v>38</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>153</v>
-      </c>
       <c r="L14" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P14" s="8"/>
     </row>
@@ -2244,10 +2223,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
@@ -2256,26 +2235,26 @@
         <v>20</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="J15" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>161</v>
-      </c>
       <c r="L15" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="8"/>
@@ -2286,10 +2265,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -2298,27 +2277,27 @@
         <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P16" s="8">
         <v>0.59375</v>
@@ -2330,10 +2309,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -2342,7 +2321,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>28</v>
@@ -2351,20 +2330,20 @@
         <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="L17" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P17" s="8"/>
     </row>
@@ -2379,7 +2358,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
@@ -2388,26 +2367,26 @@
         <v>25</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="8">
@@ -2420,10 +2399,10 @@
         <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -2432,25 +2411,25 @@
         <v>20</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -2460,10 +2439,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>34</v>
@@ -2472,7 +2451,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>18</v>
@@ -2481,19 +2460,19 @@
         <v>40</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="L20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P20" s="24">
         <v>0.58333333333333337</v>
@@ -2507,10 +2486,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>16</v>
@@ -2519,28 +2498,28 @@
         <v>22</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="K21" s="20" t="s">
-        <v>194</v>
-      </c>
       <c r="L21" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P21" s="24">
         <v>0.5625</v>
@@ -2552,10 +2531,10 @@
         <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
@@ -2564,25 +2543,25 @@
         <v>17</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="K22" s="20" t="s">
-        <v>201</v>
-      </c>
       <c r="L22" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="24">
@@ -2613,19 +2592,19 @@
         <v>18</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="N23" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="24">
@@ -2638,10 +2617,10 @@
         <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -2650,28 +2629,28 @@
         <v>20</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J24" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2680,10 +2659,10 @@
         <v>50</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
@@ -2692,28 +2671,28 @@
         <v>20</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="N25" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2722,10 +2701,10 @@
         <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>16</v>
@@ -2734,25 +2713,25 @@
         <v>25</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>225</v>
-      </c>
       <c r="N26" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="24">
@@ -2765,10 +2744,10 @@
         <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
@@ -2777,25 +2756,25 @@
         <v>38</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O27" s="2"/>
     </row>
@@ -2817,25 +2796,25 @@
         <v>38</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K28" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="N28" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O28" s="2"/>
     </row>
@@ -2845,10 +2824,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -2857,26 +2836,26 @@
         <v>38</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="8"/>
@@ -2889,10 +2868,10 @@
         <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -2901,25 +2880,25 @@
         <v>38</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O30" s="2"/>
     </row>
@@ -2931,10 +2910,10 @@
         <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
@@ -2943,7 +2922,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>18</v>
@@ -2952,19 +2931,19 @@
         <v>26</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2975,10 +2954,10 @@
         <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>19</v>
@@ -2987,26 +2966,26 @@
         <v>20</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L32" s="17" t="s">
         <v>253</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>255</v>
       </c>
       <c r="M32" s="14"/>
       <c r="N32" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="15"/>
@@ -3022,7 +3001,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -3031,7 +3010,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>18</v>
@@ -3040,17 +3019,17 @@
         <v>26</v>
       </c>
       <c r="J33" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="M33" s="16"/>
       <c r="N33" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O33" s="3"/>
     </row>
@@ -3062,10 +3041,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -3074,25 +3053,25 @@
         <v>20</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="N34" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O34" s="2"/>
     </row>
@@ -3102,10 +3081,10 @@
         <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>16</v>
@@ -3114,28 +3093,28 @@
         <v>22</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P35" s="24">
         <v>0.57291666666666663</v>
@@ -3149,10 +3128,10 @@
         <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>16</v>
@@ -3161,26 +3140,26 @@
         <v>22</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="8">
@@ -3195,10 +3174,10 @@
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
@@ -3207,26 +3186,26 @@
         <v>38</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J37" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="8"/>
@@ -3239,10 +3218,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -3251,25 +3230,25 @@
         <v>20</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J38" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="K38" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="N38" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O38" s="2"/>
     </row>
@@ -3279,10 +3258,10 @@
         <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
@@ -3291,119 +3270,95 @@
         <v>25</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="K39" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="L39" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="N39" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="O39" s="17" t="s">
         <v>293</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>295</v>
       </c>
       <c r="P39" s="8">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>43</v>
+        <v>298</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>297</v>
+        <v>38</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K40" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O40" s="3"/>
+      <c r="K40" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="O40" s="26" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="2">
-        <v>57</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="L41" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="O41" s="26" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="2"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="8"/>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="25"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -3413,8 +3368,8 @@
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
       <c r="L42" s="2"/>
+      <c r="N42" s="9"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="8"/>
     </row>
     <row r="43" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
@@ -3429,8 +3384,9 @@
       <c r="J43" s="2"/>
       <c r="K43" s="6"/>
       <c r="L43" s="2"/>
-      <c r="N43" s="9"/>
+      <c r="M43" s="7"/>
       <c r="O43" s="3"/>
+      <c r="P43" s="8"/>
     </row>
     <row r="44" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
@@ -3445,9 +3401,8 @@
       <c r="J44" s="2"/>
       <c r="K44" s="6"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="7"/>
+      <c r="N44" s="9"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="8"/>
     </row>
     <row r="45" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
@@ -3462,8 +3417,8 @@
       <c r="J45" s="2"/>
       <c r="K45" s="6"/>
       <c r="L45" s="2"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="3"/>
+      <c r="M45" s="7"/>
+      <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
@@ -3478,7 +3433,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="6"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="7"/>
+      <c r="N46" s="9"/>
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3511,7 +3466,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="2"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="2"/>
+      <c r="O48" s="18"/>
     </row>
     <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
@@ -3527,7 +3482,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="2"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="18"/>
+      <c r="O49" s="2"/>
     </row>
     <row r="50" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
@@ -3542,8 +3497,9 @@
       <c r="J50" s="2"/>
       <c r="K50" s="6"/>
       <c r="L50" s="2"/>
+      <c r="M50" s="19"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="2"/>
+      <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
@@ -3558,7 +3514,6 @@
       <c r="J51" s="2"/>
       <c r="K51" s="6"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="19"/>
       <c r="N51" s="9"/>
       <c r="O51" s="3"/>
     </row>
@@ -3575,24 +3530,13 @@
       <c r="J52" s="2"/>
       <c r="K52" s="6"/>
       <c r="L52" s="2"/>
+      <c r="M52" s="11"/>
       <c r="N52" s="9"/>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="J53" s="2"/>
-      <c r="K53" s="6"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="9"/>
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" ht="13" x14ac:dyDescent="0.15">
@@ -8280,15 +8224,10 @@
       <c r="L990" s="2"/>
       <c r="O990" s="2"/>
     </row>
-    <row r="991" spans="10:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="J991" s="2"/>
-      <c r="L991" s="2"/>
-      <c r="O991" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O53" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O53">
-      <sortCondition ref="C1:C53"/>
+  <autoFilter ref="A1:O52" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O52">
+      <sortCondition ref="C1:C52"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -8347,11 +8286,9 @@
     <hyperlink ref="K38" r:id="rId53" xr:uid="{54F97DE9-6A60-6242-B580-C05210E264BB}"/>
     <hyperlink ref="G39" r:id="rId54" xr:uid="{6BBC478E-75C6-EF49-BBB1-5C0BF8EBB898}"/>
     <hyperlink ref="K39" r:id="rId55" xr:uid="{00C2AAAF-9953-3041-80BC-44D4963FF62B}"/>
-    <hyperlink ref="G40" r:id="rId56" xr:uid="{7C583400-5C53-9448-BD11-0A1C277D6B7E}"/>
-    <hyperlink ref="K40" r:id="rId57" xr:uid="{FF7EB1E4-AC76-054E-BCB4-A75FEDAF0311}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId58"/>
+  <legacyDrawing r:id="rId56"/>
 </worksheet>
 </file>
 
@@ -8371,32 +8308,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95903AF9-8AD5-5E4E-A7EA-3471DE4602CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E695CDC-A197-8047-9AE6-9C16BB7F8DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="307">
   <si>
     <t>RSVP</t>
   </si>
@@ -1129,6 +1129,9 @@
   </si>
   <si>
     <t>Dr. Jennifer C. McIntosh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/3/folders/1rQNakBWkyT_LZV7jarIiw_YF58AFDkkg</t>
   </si>
 </sst>
 </file>
@@ -1561,10 +1564,10 @@
   <dimension ref="A1:AE990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1993,8 +1996,8 @@
       <c r="L9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>294</v>
+      <c r="N9" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="O9" s="2"/>
     </row>
@@ -3247,8 +3250,8 @@
       <c r="L38" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>294</v>
+      <c r="N38" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="O38" s="2"/>
     </row>
@@ -8286,9 +8289,11 @@
     <hyperlink ref="K38" r:id="rId53" xr:uid="{54F97DE9-6A60-6242-B580-C05210E264BB}"/>
     <hyperlink ref="G39" r:id="rId54" xr:uid="{6BBC478E-75C6-EF49-BBB1-5C0BF8EBB898}"/>
     <hyperlink ref="K39" r:id="rId55" xr:uid="{00C2AAAF-9953-3041-80BC-44D4963FF62B}"/>
+    <hyperlink ref="N9" r:id="rId56" xr:uid="{BB2EA20B-2793-DC43-B486-C0F2704FEEC5}"/>
+    <hyperlink ref="N38" r:id="rId57" xr:uid="{92F50628-BF23-6D4A-A513-648918483711}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId56"/>
+  <legacyDrawing r:id="rId58"/>
 </worksheet>
 </file>
 

--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E695CDC-A197-8047-9AE6-9C16BB7F8DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F460C8-5515-C641-9F2F-6F25BE3C5BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="308">
   <si>
     <t>RSVP</t>
   </si>
@@ -1131,7 +1131,10 @@
     <t>Dr. Jennifer C. McIntosh</t>
   </si>
   <si>
-    <t>https://drive.google.com/drive/u/3/folders/1rQNakBWkyT_LZV7jarIiw_YF58AFDkkg</t>
+    <t>https://drive.google.com/file/d/1E0xJhGp48KWw4WnaTD-nWE-DO_kM-9if/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19iGFV111d7WawooxUSoZU6HZbQzZDzlI/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1564,10 +1567,10 @@
   <dimension ref="A1:AE990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O49" sqref="O49"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1997,7 +2000,7 @@
         <v>121</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O9" s="2"/>
     </row>

--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F460C8-5515-C641-9F2F-6F25BE3C5BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84998FA-E650-5D43-9A44-EA6251AE48A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11680" windowWidth="35840" windowHeight="10580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{9AA1C683-0112-BA47-B946-1DB395832894}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{68534FC4-383A-454C-8B97-01AA1DF041F6}">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="303">
   <si>
     <t>RSVP</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Department of Civil and Architectural Engineering and Mechanics, University of Arizona</t>
   </si>
   <si>
-    <t>Amanda</t>
-  </si>
-  <si>
     <t>Oral Session 1</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
   </si>
   <si>
     <t>Dr. Bonnie Colby</t>
-  </si>
-  <si>
-    <t>Jake</t>
   </si>
   <si>
     <t>Smith</t>
@@ -875,21 +869,6 @@
   <si>
     <t xml:space="preserve">PFAS are emerging contaminants that tend to adsorb at the air–water interface (AWI). Due to the abundance of AWIs in water-unsaturated soils, this interfacially-active property complicates the transport of PFAS in the vadose zone. The AWIs in water-unsaturated soils include two types: one is associated with the pendular rings between soil grains (i.e., bulk AWI) and the other arises from the thin water films covering the soil grains. To date, the two types of AWIs have been treated the same when modeling PFAS fate and transport. However, the adsorption of PFAS at the AWI of thin water films can significantly deviate from that at the bulk AWI, due to the electrical double layers at soil grain surfaces. Given that the thin water films contribute to over 90% of AWIs in the vadose zone, it is critical to quantify the potential anomalous adsorption of PFAS at the AWIs of thin water films. 
 We develop the first thermodynamics-based model to represent and quantify this anomalous adsorption. Our analysis suggests that PFAS air–water adsorption at thin water films can be up to 80% smaller than that at the bulk AWI. The deviation becomes greater for thinner water film and higher solid charge density. These results highlight the importance of accounting for anomalous adsorption of PFAS at the AWI of thin water films when modeling PFAS fate and transport in the vadose zone. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triplett </t>
-  </si>
-  <si>
-    <t>aktriplett@arizona.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combining physically-based and machine learning modeling approaches to perform a robust parameterization of individual catchments in the continental United States </t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1ZHPyYhrGYAQhBhvxDlfB23IY4WlwJTSC/edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameterizing hydrologic models is notoriously difficult. It is a large source of error and uncertainty during the modeling process. Many methods require running a model thousands of times to explore the parameter space. This can render them impossible to meaningfully apply to computationally expensive, physically-based models such as ParFlow-CLM. In this study, we incorporate two machine learning methods, model emulation and simulation-based inference (SBI) to perform robust parameterization that was previously infeasible for a model like ParFlow-CLM. We focus on improving the parameterization of five well-monitored sub-basins of diverse geographic setting in the continental United States. In each basin, small ensembles which are representative of the range of target hydrogeologic variables (hydraulic conductivity, Manning’s n, porosity, etc.) are run with ParFlow-CLM. The results are shown to a machine learning emulator of ParFlow-CLM during training to make it sensitive to the impact of different variable distributions. The improved emulator can then be used to perform SBI and estimate posterior probability distributions of variables from real-world observations of water table depth, streamflow and snow water equivalent. Ultimately, this work illustrates how machine learning and physically-based modeling approaches can be linked together to improve overall performance and predictive power. </t>
   </si>
   <si>
     <t>Jianwen</t>
@@ -1136,12 +1115,18 @@
   <si>
     <t>https://drive.google.com/file/d/19iGFV111d7WawooxUSoZU6HZbQzZDzlI/view?usp=sharing</t>
   </si>
+  <si>
+    <t>https://drive.google.com/file/d/1S5pcQOn_9zHKe8FNm8_NfzNeoRi2RxVP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1212,11 +1197,6 @@
       <color rgb="FF0E71EB"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <u/>
@@ -1297,9 +1277,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1313,7 +1293,7 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1328,7 +1308,6 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1338,13 +1317,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1567,10 +1546,10 @@
   <dimension ref="A1:AE990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1660,268 +1639,265 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>269</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>76</v>
+        <v>270</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>271</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O2" s="17"/>
+        <v>287</v>
+      </c>
+      <c r="O2" s="3"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
       <c r="B3" s="2">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="M3" s="7"/>
       <c r="N3" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>83</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>94</v>
+        <v>227</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="24">
-        <v>0.67708333333333337</v>
-      </c>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>92</v>
+        <v>36</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>93</v>
+        <v>73</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O5" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O5" s="16"/>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>99</v>
+        <v>36</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>100</v>
+        <v>168</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>78</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>106</v>
+        <v>36</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>107</v>
+        <v>287</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
       <c r="B8" s="2">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>113</v>
@@ -1930,485 +1906,470 @@
         <v>114</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>112</v>
+        <v>36</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="2" t="s">
-        <v>294</v>
+        <v>118</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>300</v>
       </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="8">
-        <v>0.66666666666666663</v>
-      </c>
     </row>
     <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>117</v>
+        <v>36</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>122</v>
+        <v>94</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>128</v>
+        <v>36</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O10" s="2"/>
-      <c r="P10" s="24">
-        <v>0.65625</v>
-      </c>
     </row>
     <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B11" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>134</v>
+        <v>36</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>135</v>
+        <v>146</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
       <c r="B12" s="2">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>143</v>
+        <v>36</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>138</v>
+        <v>241</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>144</v>
+        <v>36</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>147</v>
+        <v>235</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M13" s="7"/>
+        <v>237</v>
+      </c>
+      <c r="M13" s="13"/>
       <c r="N13" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O13" s="2"/>
-      <c r="P13" s="12"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>302</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>150</v>
+        <v>36</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>151</v>
+        <v>229</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="M14" s="7"/>
+        <v>231</v>
+      </c>
       <c r="N14" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>154</v>
+        <v>291</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>155</v>
+        <v>292</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>156</v>
+        <v>36</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="8"/>
+        <v>298</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
       <c r="B16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>166</v>
+        <v>20</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="M16" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" s="7"/>
       <c r="N16" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="P16" s="8">
-        <v>0.59375</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>169</v>
+        <v>20</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>170</v>
+        <v>69</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="M17" s="7"/>
+        <v>157</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="N17" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="P17" s="8"/>
+        <v>205</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>177</v>
+        <v>20</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>254</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M18" s="11"/>
+        <v>257</v>
+      </c>
       <c r="N18" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="8">
-        <v>0.42708333333333331</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -2416,217 +2377,211 @@
       <c r="F19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>183</v>
+      <c r="G19" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>180</v>
+        <v>103</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
       <c r="B20" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>187</v>
+        <v>20</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="M20" s="14"/>
       <c r="N20" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="P20" s="24">
-        <v>0.58333333333333337</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="15"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>1</v>
       </c>
       <c r="B21" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>193</v>
+        <v>36</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>191</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" s="7"/>
       <c r="N21" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P21" s="24">
-        <v>0.5625</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="12"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>198</v>
+        <v>179</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O22" s="2"/>
-      <c r="P22" s="24">
-        <v>0.6875</v>
-      </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
       <c r="B23" s="2">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>276</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>203</v>
+        <v>273</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>294</v>
+        <v>275</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>299</v>
       </c>
       <c r="O23" s="2"/>
-      <c r="P23" s="24">
-        <v>0.44791666666666669</v>
-      </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -2634,41 +2589,43 @@
       <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>210</v>
+      <c r="G24" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>159</v>
+        <v>140</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M24" s="7"/>
       <c r="N24" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
       <c r="B25" s="2">
-        <v>50</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>211</v>
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
@@ -2676,587 +2633,608 @@
       <c r="F25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>217</v>
+      <c r="G25" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="K25" s="6" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2">
-        <v>56</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>218</v>
+        <v>50</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>220</v>
+        <v>20</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>223</v>
+        <v>212</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="24">
-        <v>0.4375</v>
+        <v>287</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
       <c r="B27" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>228</v>
+        <v>17</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>225</v>
+        <v>83</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O27" s="2"/>
+      <c r="P27" s="23">
+        <v>0.67708333333333337</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>230</v>
+        <v>17</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>233</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="11"/>
       <c r="N28" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O28" s="2"/>
+      <c r="P28" s="8">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
       <c r="B29" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>236</v>
+        <v>17</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>237</v>
+        <v>127</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="M29" s="13"/>
+        <v>123</v>
+      </c>
       <c r="N29" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O29" s="2"/>
-      <c r="P29" s="8"/>
+      <c r="P29" s="23">
+        <v>0.65625</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
-        <v>1</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="2">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>241</v>
+        <v>22</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>244</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="K30" s="6"/>
       <c r="L30" s="2" t="s">
-        <v>242</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M30" s="11"/>
       <c r="N30" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P30" s="8">
+        <v>0.59375</v>
+      </c>
     </row>
     <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>1</v>
       </c>
       <c r="B31" s="2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>246</v>
+        <v>24</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>248</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M31" s="11"/>
       <c r="N31" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>249</v>
+        <v>287</v>
+      </c>
+      <c r="O31" s="3"/>
+      <c r="P31" s="8">
+        <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>250</v>
+        <v>22</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="M32" s="14"/>
+        <v>186</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="N32" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="15"/>
+        <v>287</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P32" s="23">
+        <v>0.58333333333333337</v>
+      </c>
     </row>
     <row r="33" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>1</v>
       </c>
       <c r="B33" s="2">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>255</v>
+        <v>22</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="M33" s="16"/>
+        <v>188</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>189</v>
+      </c>
       <c r="N33" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O33" s="3"/>
+        <v>287</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P33" s="23">
+        <v>0.5625</v>
+      </c>
     </row>
     <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
-        <v>1</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="2">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>261</v>
+        <v>17</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>264</v>
+        <v>195</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O34" s="2"/>
+      <c r="P34" s="23">
+        <v>0.6875</v>
+      </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>265</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>267</v>
+        <v>24</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>295</v>
+        <v>199</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="P35" s="24">
-        <v>0.57291666666666663</v>
+        <v>287</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="23">
+        <v>0.44791666666666669</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>272</v>
+        <v>24</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="M36" s="7"/>
+        <v>219</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>221</v>
+      </c>
       <c r="N36" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O36" s="2"/>
-      <c r="P36" s="8">
-        <v>0.60416666666666663</v>
+      <c r="P36" s="23">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
-        <v>1</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" s="2">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>276</v>
+        <v>22</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>260</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="M37" s="7"/>
+        <v>262</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>288</v>
+      </c>
       <c r="N37" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O37" s="3"/>
-      <c r="P37" s="8"/>
+        <v>287</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="P37" s="23">
+        <v>0.57291666666666663</v>
+      </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>1</v>
       </c>
       <c r="B38" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>286</v>
+        <v>54</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>283</v>
+        <v>22</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>281</v>
+        <v>266</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>264</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="N38" s="22" t="s">
-        <v>306</v>
+        <v>263</v>
+      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="O38" s="2"/>
+      <c r="P38" s="8">
+        <v>0.60416666666666663</v>
+      </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
@@ -3264,40 +3242,40 @@
         <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>288</v>
+        <v>24</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="K39" s="20" t="s">
-        <v>291</v>
+        <v>282</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>293</v>
+        <v>287</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>286</v>
       </c>
       <c r="P39" s="8">
         <v>0.41666666666666669</v>
@@ -3305,50 +3283,24 @@
     </row>
     <row r="40" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="2">
-        <v>57</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="L40" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="O40" s="26" t="s">
-        <v>304</v>
-      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="25"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="25"/>
     </row>
     <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="25"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3472,7 +3424,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="2"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="18"/>
+      <c r="O48" s="17"/>
     </row>
     <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
@@ -3503,7 +3455,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="6"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="19"/>
+      <c r="M50" s="18"/>
       <c r="N50" s="9"/>
       <c r="O50" s="3"/>
     </row>
@@ -8237,66 +8189,65 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K37" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G2" r:id="rId5" xr:uid="{77138927-CEBA-F146-A8FD-997F6DBFE1CC}"/>
-    <hyperlink ref="G3" r:id="rId6" xr:uid="{810788EA-A4F8-5449-959E-6A3BAB0A5FCC}"/>
-    <hyperlink ref="G4" r:id="rId7" xr:uid="{984776D1-980F-574A-B29E-20661E506C2D}"/>
-    <hyperlink ref="G5" r:id="rId8" xr:uid="{1CACEE16-C2B1-FD43-A3F9-F8C876B4D9E6}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{38B502DE-7177-9640-81F9-DEA6293E8A4A}"/>
-    <hyperlink ref="K6" r:id="rId10" xr:uid="{FA505370-B262-2541-979B-FBE4170662C5}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{23118CDF-68C9-2D4B-B1C6-F1E5CA831697}"/>
-    <hyperlink ref="G8" r:id="rId12" xr:uid="{D630831C-5313-CD41-A8F1-CA61D4B32375}"/>
-    <hyperlink ref="G9" r:id="rId13" xr:uid="{B01215DC-988B-D54D-A530-2F6929CBE083}"/>
-    <hyperlink ref="K9" r:id="rId14" xr:uid="{13E09CDE-38C2-894B-82E5-97D8C742808A}"/>
-    <hyperlink ref="G10" r:id="rId15" xr:uid="{CD3A5EE3-734D-0B44-AD98-8B17940AA8AC}"/>
-    <hyperlink ref="G11" r:id="rId16" xr:uid="{2491B1F1-69E5-9C48-B20A-9E2E205A717E}"/>
-    <hyperlink ref="K11" r:id="rId17" xr:uid="{99BFC213-2AB0-5648-8081-65120279D33F}"/>
-    <hyperlink ref="G12" r:id="rId18" xr:uid="{B4BBF001-A169-DC49-B5B0-DD70730B11FC}"/>
-    <hyperlink ref="G13" r:id="rId19" xr:uid="{DB54F855-132C-4748-BC18-530C039B0506}"/>
-    <hyperlink ref="K13" r:id="rId20" xr:uid="{D679EDD5-022B-A446-913E-6FBCFB41DC60}"/>
-    <hyperlink ref="G14" r:id="rId21" xr:uid="{38DF59B3-2193-1D44-A043-45AE740C5B75}"/>
-    <hyperlink ref="K14" r:id="rId22" xr:uid="{0D6740F9-021A-C944-BD42-4F7D5D157A3D}"/>
-    <hyperlink ref="G15" r:id="rId23" xr:uid="{EC576855-B8EB-9743-AA73-49B37B9F4F86}"/>
-    <hyperlink ref="K15" r:id="rId24" xr:uid="{AEAABABF-E373-7941-8564-6524A4BBC75E}"/>
-    <hyperlink ref="G17" r:id="rId25" xr:uid="{B530809B-CCDC-4946-98F1-DC5246F14966}"/>
-    <hyperlink ref="G18" r:id="rId26" xr:uid="{EDB3C851-8048-BC4D-93AD-9EC2C4FB4BCF}"/>
-    <hyperlink ref="G19" r:id="rId27" xr:uid="{E726EB26-4F43-564A-857F-5A34AE82CEF0}"/>
-    <hyperlink ref="G20" r:id="rId28" xr:uid="{2C21A3E0-5744-2E41-916F-AF2338232874}"/>
-    <hyperlink ref="G21" r:id="rId29" xr:uid="{27F41A05-55FE-314C-9D47-18E0366645C1}"/>
-    <hyperlink ref="K22" r:id="rId30" xr:uid="{076CA5F0-0E37-D948-9105-CAE0E3781AD4}"/>
-    <hyperlink ref="G22" r:id="rId31" xr:uid="{0AAF1CDD-B397-EA4D-9975-A28C3DF7D5E8}"/>
-    <hyperlink ref="G23" r:id="rId32" xr:uid="{4999A1A0-5BD4-214F-A416-01DF82423FF7}"/>
-    <hyperlink ref="K23" r:id="rId33" xr:uid="{3F9EDEA4-603A-4147-86E6-38578F848762}"/>
-    <hyperlink ref="G24" r:id="rId34" xr:uid="{FDEF875D-F870-BB40-A60B-0D6B965270E5}"/>
-    <hyperlink ref="G25" r:id="rId35" xr:uid="{C53ED37D-FD99-9544-BE02-3A8B8C3B72A3}"/>
-    <hyperlink ref="G26" r:id="rId36" xr:uid="{6BFE9382-488D-0243-A2F4-A30CC54DBE0A}"/>
-    <hyperlink ref="K27" r:id="rId37" xr:uid="{3FC42E86-A56B-844E-8BC1-5286310C2846}"/>
-    <hyperlink ref="G27" r:id="rId38" xr:uid="{11072F54-15BB-8F45-8CC6-E1C5D608FADD}"/>
-    <hyperlink ref="G28" r:id="rId39" xr:uid="{8805D8F0-B2B1-9340-B22A-10756A45527B}"/>
-    <hyperlink ref="G29" r:id="rId40" xr:uid="{F4E0B63B-A493-0F48-A130-60AF469E4050}"/>
-    <hyperlink ref="G30" r:id="rId41" xr:uid="{05DA6A2A-F9D8-0445-9EE2-3462B6D3D452}"/>
-    <hyperlink ref="K30" r:id="rId42" xr:uid="{DA403A0F-B567-1144-A733-B2E707591C5E}"/>
-    <hyperlink ref="G31" r:id="rId43" xr:uid="{10AB984C-8EAE-0D40-B6C9-365F12E268E1}"/>
-    <hyperlink ref="G32" r:id="rId44" xr:uid="{F96AF4B0-032F-E247-9C12-1D3D423D135B}"/>
-    <hyperlink ref="G33" r:id="rId45" xr:uid="{12BF65DC-8BB5-C14A-B0E4-60FC899B04AE}"/>
-    <hyperlink ref="K33" r:id="rId46" xr:uid="{B5030F58-B5D9-A543-897A-EEC3D02CF413}"/>
-    <hyperlink ref="G34" r:id="rId47" xr:uid="{DC642A13-CC22-3543-8ACF-C061497F8C6D}"/>
-    <hyperlink ref="G35" r:id="rId48" xr:uid="{3C2905B7-315C-BE42-82DB-F4336881C34F}"/>
-    <hyperlink ref="G36" r:id="rId49" xr:uid="{66F7F604-4839-EF4C-A19F-786B67D2A423}"/>
-    <hyperlink ref="K36" r:id="rId50" xr:uid="{4CA0490F-87C3-9C4F-B7EF-16C5F0E26368}"/>
-    <hyperlink ref="G37" r:id="rId51" xr:uid="{6403D623-867E-DF42-A4E3-3F9347F11A6A}"/>
-    <hyperlink ref="G38" r:id="rId52" xr:uid="{BC18AAF0-FF5E-5C4B-9F27-2E70651EA151}"/>
-    <hyperlink ref="K38" r:id="rId53" xr:uid="{54F97DE9-6A60-6242-B580-C05210E264BB}"/>
-    <hyperlink ref="G39" r:id="rId54" xr:uid="{6BBC478E-75C6-EF49-BBB1-5C0BF8EBB898}"/>
-    <hyperlink ref="K39" r:id="rId55" xr:uid="{00C2AAAF-9953-3041-80BC-44D4963FF62B}"/>
-    <hyperlink ref="N9" r:id="rId56" xr:uid="{BB2EA20B-2793-DC43-B486-C0F2704FEEC5}"/>
-    <hyperlink ref="N38" r:id="rId57" xr:uid="{92F50628-BF23-6D4A-A513-648918483711}"/>
+    <hyperlink ref="G39" r:id="rId1" xr:uid="{6BBC478E-75C6-EF49-BBB1-5C0BF8EBB898}"/>
+    <hyperlink ref="K39" r:id="rId2" xr:uid="{00C2AAAF-9953-3041-80BC-44D4963FF62B}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{8D39178F-5232-234D-ABAD-CDE298E7FE6C}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{2F7C59D3-E3A2-1C4D-951B-ABE0F276DC08}"/>
+    <hyperlink ref="K3" r:id="rId5" xr:uid="{C237A74F-0EEC-F840-8779-0B126984DBF4}"/>
+    <hyperlink ref="G3" r:id="rId6" xr:uid="{D69D92BC-E975-A44E-B32E-4C7F84C16926}"/>
+    <hyperlink ref="K4" r:id="rId7" xr:uid="{EEA08159-713E-2D4B-9A64-55669BCF1920}"/>
+    <hyperlink ref="G4" r:id="rId8" xr:uid="{3034457A-CC21-A440-A295-BD6B91F91B91}"/>
+    <hyperlink ref="K5" r:id="rId9" xr:uid="{1A0DCCDA-4475-7F4C-B16E-D32C3CD19835}"/>
+    <hyperlink ref="G5" r:id="rId10" xr:uid="{16F60DAD-D74C-7849-ADA3-2DA1EFF8F2BB}"/>
+    <hyperlink ref="G6" r:id="rId11" xr:uid="{281DD04C-349B-CE44-971C-C2E80CE026D2}"/>
+    <hyperlink ref="G7" r:id="rId12" xr:uid="{197D9B8A-3342-4E4A-8AD4-3C2A5D99D670}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{86436622-F037-8541-9A3D-1D6DB00A956C}"/>
+    <hyperlink ref="K8" r:id="rId14" xr:uid="{83DB60EA-53AF-C940-AC92-8CD7871C4F02}"/>
+    <hyperlink ref="N8" r:id="rId15" xr:uid="{45B25698-0542-5D4C-B1A4-828932916D21}"/>
+    <hyperlink ref="G9" r:id="rId16" xr:uid="{A76013C8-C1C6-AC4A-A183-DB295CEA8293}"/>
+    <hyperlink ref="K9" r:id="rId17" xr:uid="{8331A412-38C3-AA4F-AADA-6040C577F289}"/>
+    <hyperlink ref="G10" r:id="rId18" xr:uid="{003B1517-54E2-5047-9C9A-319FE79899E4}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{AB3B55D9-9CBC-FC4F-9F9C-DE109BF3924D}"/>
+    <hyperlink ref="K11" r:id="rId20" xr:uid="{85067B1D-C69F-E145-939A-57F0A06CE4A9}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{016331E1-8081-2945-9A8F-D5EED45A5023}"/>
+    <hyperlink ref="K12" r:id="rId22" xr:uid="{78BFA558-9D84-BE4F-9428-3121F28C1909}"/>
+    <hyperlink ref="N12" r:id="rId23" xr:uid="{34A14943-E87D-3940-A3F5-5FE9956764FE}"/>
+    <hyperlink ref="G13" r:id="rId24" xr:uid="{E8D9761E-6FFA-0F43-B9F1-0D01D5A23A5A}"/>
+    <hyperlink ref="K14" r:id="rId25" xr:uid="{2928E80B-0BA2-0046-806B-1CA065B08268}"/>
+    <hyperlink ref="G14" r:id="rId26" xr:uid="{BCDA35D0-B400-8945-8C5D-95DA688D4B2B}"/>
+    <hyperlink ref="G16" r:id="rId27" xr:uid="{6A2A0943-06F9-B341-8533-948C78B407B2}"/>
+    <hyperlink ref="K16" r:id="rId28" xr:uid="{75C48090-031C-6748-A1B5-9CD6B7BCC1D4}"/>
+    <hyperlink ref="G17" r:id="rId29" xr:uid="{795D85ED-95A3-8642-A4CB-6685B7C8EC5F}"/>
+    <hyperlink ref="G18" r:id="rId30" xr:uid="{808ACB0D-C86B-DD42-B54F-E466FFCB8A7A}"/>
+    <hyperlink ref="G19" r:id="rId31" xr:uid="{CA77A6D3-5921-BD4E-9375-823C90EA089B}"/>
+    <hyperlink ref="G20" r:id="rId32" xr:uid="{83B3FC85-A50C-BF47-8577-4AF059355E44}"/>
+    <hyperlink ref="G21" r:id="rId33" xr:uid="{6AEF6614-4A3D-2D48-986A-7F74661BC24C}"/>
+    <hyperlink ref="K21" r:id="rId34" xr:uid="{F7BDE2D1-A53D-024D-AC6B-9001692EB7DA}"/>
+    <hyperlink ref="G22" r:id="rId35" xr:uid="{C06E7FFD-32C1-984F-8A97-3DD43643BB95}"/>
+    <hyperlink ref="G23" r:id="rId36" xr:uid="{48E52D1A-D0EE-2B40-8406-8576F3BB6CBA}"/>
+    <hyperlink ref="K23" r:id="rId37" xr:uid="{3E1C80EA-97DC-294D-B162-E8F1D8AE1B9E}"/>
+    <hyperlink ref="N23" r:id="rId38" xr:uid="{1E992416-B1EB-E644-83DA-99480EB8AFDE}"/>
+    <hyperlink ref="G24" r:id="rId39" xr:uid="{243F68BA-519C-4D45-8AF5-7F7F1CCFA6B4}"/>
+    <hyperlink ref="K24" r:id="rId40" xr:uid="{39093D4B-BF73-5B40-9163-3AA47A1DF59E}"/>
+    <hyperlink ref="G25" r:id="rId41" xr:uid="{DC55CF36-DCB3-D14C-8163-32A8CA8239A0}"/>
+    <hyperlink ref="G26" r:id="rId42" xr:uid="{E2694E8D-3214-264C-8F46-2227B6E97C2A}"/>
+    <hyperlink ref="G27" r:id="rId43" xr:uid="{41ADE2B0-1BE0-FB4D-993A-479B20DA702B}"/>
+    <hyperlink ref="G28" r:id="rId44" xr:uid="{8C1DBAC9-72D1-6742-A88F-28F979F83454}"/>
+    <hyperlink ref="G29" r:id="rId45" xr:uid="{13982DAC-112E-8A48-B3B9-E58781E1E52B}"/>
+    <hyperlink ref="G31" r:id="rId46" xr:uid="{E08F7EA2-4839-0E47-B28C-99A81FADEFC0}"/>
+    <hyperlink ref="G32" r:id="rId47" xr:uid="{E96D31DA-85D1-9041-839E-F9038A862734}"/>
+    <hyperlink ref="G33" r:id="rId48" xr:uid="{CAA130A3-5432-6347-83DE-127DCBE0B021}"/>
+    <hyperlink ref="K34" r:id="rId49" xr:uid="{3AF684DD-9549-FE43-8DE1-61A2A676E234}"/>
+    <hyperlink ref="G34" r:id="rId50" xr:uid="{E1032FDA-669D-7F4B-9D91-23CC84189B47}"/>
+    <hyperlink ref="G35" r:id="rId51" xr:uid="{2571776E-4C7F-8943-8DCD-8DEA53297059}"/>
+    <hyperlink ref="K35" r:id="rId52" xr:uid="{FAB55A55-9240-F045-9A66-4A0014674583}"/>
+    <hyperlink ref="G36" r:id="rId53" xr:uid="{D3A8BC09-0160-A642-BD5D-393B140C1540}"/>
+    <hyperlink ref="G37" r:id="rId54" xr:uid="{145DE1E1-6187-034B-88E5-6A00C2771D0D}"/>
+    <hyperlink ref="G38" r:id="rId55" xr:uid="{1C71C305-15C0-9644-9BB9-B2FEB944045F}"/>
+    <hyperlink ref="K38" r:id="rId56" xr:uid="{5172C7F9-3709-DE47-A1DD-A0120253E302}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId58"/>
+  <legacyDrawing r:id="rId57"/>
 </worksheet>
 </file>
 
@@ -8316,32 +8267,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84998FA-E650-5D43-9A44-EA6251AE48A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1CA883-B1BE-2548-B449-8E84CF4BCC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11680" windowWidth="35840" windowHeight="10580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11100" windowWidth="35840" windowHeight="10580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>Dr. Bonnie Colby</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
     <t>Yuan-Heng</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>Abigail</t>
   </si>
   <si>
-    <t>Kahler</t>
-  </si>
-  <si>
     <t>Poster Session 1</t>
   </si>
   <si>
@@ -222,15 +216,9 @@
     <t>Luis</t>
   </si>
   <si>
-    <t>De la Fuente</t>
-  </si>
-  <si>
     <t>Dr. P.A. Ty Ferré</t>
   </si>
   <si>
-    <t>West</t>
-  </si>
-  <si>
     <t>Implementing reservoir operations in ParFlow, a fully integrated physical hydrology model</t>
   </si>
   <si>
@@ -249,9 +237,6 @@
     <t>Dr. Eyad Atallah</t>
   </si>
   <si>
-    <t>Zhang</t>
-  </si>
-  <si>
     <t>Chen</t>
   </si>
   <si>
@@ -276,15 +261,9 @@
     <t>Dylan</t>
   </si>
   <si>
-    <t>Girone</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
-    <t>Dahl</t>
-  </si>
-  <si>
     <t>Wenqian</t>
   </si>
   <si>
@@ -315,9 +294,6 @@
     <t>Sabrina</t>
   </si>
   <si>
-    <t>Wilson</t>
-  </si>
-  <si>
     <t>sdwilson@arizona.edu</t>
   </si>
   <si>
@@ -339,9 +315,6 @@
     <t>Marleigh</t>
   </si>
   <si>
-    <t>Nicholas</t>
-  </si>
-  <si>
     <t>There are stream gages used for various purposes by different entities throughout Arizona. However, the lack of collaboration between the entities means there is a shortage of dissemination for the locations of these gages. This drastically reduces the efficiency and accuracy of gathering information for streamflow data. The Arizona Streamgage Catalog (AZStreamCAT) will be an online publicly-available catalog of streamgages that provides an overview of the quantity and location of non-USGS streamgages operated in Arizona. By coalescing pre-existing data, the catalog can be used to provide information to stakeholders, increase effective management of resources and help establish protocols for future data collection.  Data for AZStreamCAT will be collected via online surveys that will be sent to various entities in Arizona that operate streamgages. The respondents are asked to provide latitude and longitude coordinates for each gauge location. The coordinates are used to create points on a map which includes an Arizona counties boundaries layer, a watershed boundary layer, and a river layer. The point locations are categorized by organization names which are represented by different colors. The resulting map is an aggregate of virtually every streamgage in Arizona. The map will ultimately be published on ArcGIS Online as a hosted feature layer that will be accessible for public use.</t>
   </si>
   <si>
@@ -363,9 +336,6 @@
     <t>Cassidy</t>
   </si>
   <si>
-    <t>Soloff</t>
-  </si>
-  <si>
     <t>Characterization of Atmospheric Variables Across the Northwest Atlantic: Analysis of Transit Flights during the NASA ACTIVATE Mission</t>
   </si>
   <si>
@@ -388,9 +358,6 @@
   </si>
   <si>
     <t>Stephanie</t>
-  </si>
-  <si>
-    <t>Serrano</t>
   </si>
   <si>
     <t>stephanieserrano@arizona.edu</t>
@@ -447,9 +414,6 @@
     <t>Nandita</t>
   </si>
   <si>
-    <t>Parekh</t>
-  </si>
-  <si>
     <t>nparekh@arizona.edu</t>
   </si>
   <si>
@@ -495,9 +459,6 @@
     <t xml:space="preserve">Understanding vadose zone flow behavior is important for characterizing contaminant transport, recharge to aquifers, and surface-subsurface water interactions. Flow behavior can be inferred from field water content and pressure head data. However, the number of observations, their locations in space, and observation types can have significant impacts on the resulting vadose zone flow forecast. We use HYDRUS 1D to infer soil hydraulic properties given water content and pressure head data. From this, water flux is calculated at the base of the column to represent deep infiltration.  We explore the effect that the spatial and temporal resolution of the data points and the observation type have on the ability to accurately infer this water flux through time.  The results could be used to customize field sampling efforts to specific objectives.  </t>
   </si>
   <si>
-    <t>Jarocki</t>
-  </si>
-  <si>
     <t>Mica</t>
   </si>
   <si>
@@ -519,9 +480,6 @@
     <t>Starlivia</t>
   </si>
   <si>
-    <t>Kaska</t>
-  </si>
-  <si>
     <t>Dr. Peter A. Troch</t>
   </si>
   <si>
@@ -562,9 +520,6 @@
   </si>
   <si>
     <t>Hassan</t>
-  </si>
-  <si>
-    <t>Saleem</t>
   </si>
   <si>
     <t>saleemh@arizona.edu</t>
@@ -607,9 +562,6 @@
     <t>Zoey</t>
   </si>
   <si>
-    <t>Reed-Spitzer</t>
-  </si>
-  <si>
     <t>zreedspitzer@arizona.edu</t>
   </si>
   <si>
@@ -642,9 +594,6 @@
     <t>Haugen</t>
   </si>
   <si>
-    <t>Morales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hydrogeologists commonly inform decision makers by predicting the impacts of proposed activities on future water resources. In many cases, one stakeholder hires them to perform analyses that are most relevant to their decisions, leaving other stakeholders to make decisions based on a model that is less well-suited—or even inappropriate—to account for the concerns that are central to their decision context. One approach to address this disconnect and provide predictions relevant to all stakeholders is to build an ensemble of models that span the range of plausible conditions. This ensures that all stakeholders can make better-informed decisions; but it raises a difficult practical question. How can all stakeholders come to consensus decisions based on multiple, possibly conflicting models?  One path forward may be through Good Neighbor Agreements (GNAs) which are legally binding agreements developed between a business and another party to direct concerns and expectations regarding the potential impacts of business’ operations on the local environment and community. With these agreements, stakeholders can agree upon a course of action, possibly based on one model or a combination of models, with caveats that account for the predictions of other models in the ensemble.  This allows all parties to make decisions based on the best available science with contingencies to address uncertainties.  My work will use artificial intelligence to conduct an initial analysis of the structure of GNAs and then propose a GNA that supports water-resources negotiations that will achieve more fair, equitable, and positive outcomes in Southern Arizona. </t>
   </si>
   <si>
@@ -734,16 +683,10 @@
     <t xml:space="preserve">Seyed </t>
   </si>
   <si>
-    <t>Mohammad Amin Mirrezaei</t>
-  </si>
-  <si>
     <t>amirrezaei@arizona.edu</t>
   </si>
   <si>
     <t>Gillian</t>
-  </si>
-  <si>
-    <t>Noonan</t>
   </si>
   <si>
     <t>Numerical investigation of mining-induced, hydromechanically-coupled responses for a Nevada mine site</t>
@@ -789,9 +732,6 @@
     <t>Ryan</t>
   </si>
   <si>
-    <t>Russell</t>
-  </si>
-  <si>
     <t>rfrussell@arizona.edu</t>
   </si>
   <si>
@@ -811,9 +751,6 @@
   </si>
   <si>
     <t>Dallin</t>
-  </si>
-  <si>
-    <t>Cook</t>
   </si>
   <si>
     <t>dallincook@arizona.edu</t>
@@ -874,9 +811,6 @@
     <t>Jianwen</t>
   </si>
   <si>
-    <t>Du</t>
-  </si>
-  <si>
     <t>janewendu@arizona.edu</t>
   </si>
   <si>
@@ -919,9 +853,6 @@
     <t xml:space="preserve">Lauren </t>
   </si>
   <si>
-    <t>Porter</t>
-  </si>
-  <si>
     <t>laurenporter@arizona.edu</t>
   </si>
   <si>
@@ -944,9 +875,6 @@
   </si>
   <si>
     <t>kevindyer@arizona.edu</t>
-  </si>
-  <si>
-    <t>Dyer</t>
   </si>
   <si>
     <t>Lin</t>
@@ -991,9 +919,6 @@
   </si>
   <si>
     <t>Jeffrey</t>
-  </si>
-  <si>
-    <t>Switzer</t>
   </si>
   <si>
     <t>Influence of seasonal precipitation amounts on stream water source contributions</t>
@@ -1120,6 +1045,81 @@
   </si>
   <si>
     <t>Jacob</t>
+  </si>
+  <si>
+    <t>Porter - P13</t>
+  </si>
+  <si>
+    <t>Soloff - P14</t>
+  </si>
+  <si>
+    <t>Russell - P15</t>
+  </si>
+  <si>
+    <t>Wilson - P16</t>
+  </si>
+  <si>
+    <t>Reed-Spitzer - P17</t>
+  </si>
+  <si>
+    <t>Nicholas - P18</t>
+  </si>
+  <si>
+    <t>Parekh - P19</t>
+  </si>
+  <si>
+    <t>Serrano - P20</t>
+  </si>
+  <si>
+    <t>Kaska - P21</t>
+  </si>
+  <si>
+    <t>Girone - P22</t>
+  </si>
+  <si>
+    <t>Dahl - P24</t>
+  </si>
+  <si>
+    <t>Cook - P25</t>
+  </si>
+  <si>
+    <t>Smith - P26</t>
+  </si>
+  <si>
+    <t>Switzer  - P27</t>
+  </si>
+  <si>
+    <t>Saleem  - P2</t>
+  </si>
+  <si>
+    <t>Mohammad Amin Mirrezaei - P3</t>
+  </si>
+  <si>
+    <t>Du - P4</t>
+  </si>
+  <si>
+    <t>De la Fuente - P5</t>
+  </si>
+  <si>
+    <t>Zhang - P6</t>
+  </si>
+  <si>
+    <t>Kahler - P7</t>
+  </si>
+  <si>
+    <t>Morales - P8</t>
+  </si>
+  <si>
+    <t>Dyer - P9</t>
+  </si>
+  <si>
+    <t>Jarocki - P10</t>
+  </si>
+  <si>
+    <t>West - P11</t>
+  </si>
+  <si>
+    <t>Noonan - P12</t>
   </si>
 </sst>
 </file>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:AE990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1642,38 +1642,38 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="8"/>
@@ -1686,38 +1686,38 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>279</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="8"/>
@@ -1728,37 +1728,37 @@
         <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -1770,38 +1770,38 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="8"/>
@@ -1812,19 +1812,19 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>27</v>
@@ -1833,20 +1833,20 @@
         <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="P6" s="8"/>
     </row>
@@ -1856,40 +1856,40 @@
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1900,37 +1900,37 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>284</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="O8" s="2"/>
     </row>
@@ -1942,41 +1942,41 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="P9" s="8"/>
     </row>
@@ -1986,83 +1986,83 @@
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>138</v>
+        <v>286</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>287</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="P11" s="8"/>
     </row>
@@ -2074,37 +2074,37 @@
         <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>288</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="O12" s="2"/>
     </row>
@@ -2114,38 +2114,38 @@
         <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="8"/>
@@ -2156,37 +2156,37 @@
         <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -2196,40 +2196,40 @@
         <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O15" s="25" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2240,10 +2240,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -2252,26 +2252,26 @@
         <v>20</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="8"/>
@@ -2282,10 +2282,10 @@
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -2294,28 +2294,28 @@
         <v>20</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2326,10 +2326,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -2338,25 +2338,25 @@
         <v>20</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -2366,10 +2366,10 @@
         <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>18</v>
@@ -2387,19 +2387,19 @@
         <v>25</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2410,10 +2410,10 @@
         <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -2422,26 +2422,26 @@
         <v>20</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="15"/>
@@ -2454,38 +2454,38 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="12"/>
@@ -2496,10 +2496,10 @@
         <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>177</v>
+        <v>298</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -2508,25 +2508,25 @@
         <v>20</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O22" s="2"/>
     </row>
@@ -2538,10 +2538,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -2550,25 +2550,25 @@
         <v>20</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="K23" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N23" s="21" t="s">
         <v>274</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="N23" s="21" t="s">
-        <v>299</v>
       </c>
       <c r="O23" s="2"/>
     </row>
@@ -2578,10 +2578,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -2590,26 +2590,26 @@
         <v>20</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="8"/>
@@ -2622,10 +2622,10 @@
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
@@ -2634,7 +2634,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>18</v>
@@ -2643,19 +2643,19 @@
         <v>25</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2664,10 +2664,10 @@
         <v>50</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -2676,28 +2676,28 @@
         <v>20</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2708,10 +2708,10 @@
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
@@ -2720,7 +2720,7 @@
         <v>17</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>18</v>
@@ -2729,16 +2729,16 @@
         <v>25</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="23">
@@ -2751,10 +2751,10 @@
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
@@ -2763,26 +2763,26 @@
         <v>17</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="8">
@@ -2797,10 +2797,10 @@
         <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
@@ -2809,25 +2809,25 @@
         <v>17</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="23">
@@ -2840,10 +2840,10 @@
         <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>21</v>
@@ -2852,27 +2852,27 @@
         <v>22</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="P30" s="8">
         <v>0.59375</v>
@@ -2889,7 +2889,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>16</v>
@@ -2898,26 +2898,26 @@
         <v>24</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="8">
@@ -2930,40 +2930,40 @@
         <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="P32" s="23">
         <v>0.58333333333333337</v>
@@ -2977,10 +2977,10 @@
         <v>21</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>16</v>
@@ -2989,28 +2989,28 @@
         <v>22</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="P33" s="23">
         <v>0.5625</v>
@@ -3022,10 +3022,10 @@
         <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
@@ -3034,25 +3034,25 @@
         <v>17</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="23">
@@ -3065,10 +3065,10 @@
         <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>16</v>
@@ -3077,25 +3077,25 @@
         <v>24</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="23">
@@ -3108,10 +3108,10 @@
         <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>16</v>
@@ -3120,25 +3120,25 @@
         <v>24</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="23">
@@ -3151,10 +3151,10 @@
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>16</v>
@@ -3163,28 +3163,28 @@
         <v>22</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="P37" s="23">
         <v>0.57291666666666663</v>
@@ -3198,10 +3198,10 @@
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>16</v>
@@ -3210,26 +3210,26 @@
         <v>22</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="8">
@@ -3242,10 +3242,10 @@
         <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
@@ -3254,28 +3254,28 @@
         <v>24</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="P39" s="8">
         <v>0.41666666666666669</v>
@@ -8267,32 +8267,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1CA883-B1BE-2548-B449-8E84CF4BCC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E038C652-A5C4-5D46-ABC9-9EF5454DF58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11100" windowWidth="35840" windowHeight="10580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1549,7 +1549,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2463,7 +2463,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>128</v>

--- a/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
+++ b/Abstracts/Website-Presentation-Database-BAK_2023-SpringBreak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/Desktop/HPC_DownloadTemp/eldia-web.github.io/Abstracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E038C652-A5C4-5D46-ABC9-9EF5454DF58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D487A62-40C3-8F46-AF91-5917E22F1913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>Implementing reservoir operations in ParFlow, a fully integrated physical hydrology model</t>
-  </si>
-  <si>
-    <t>Recent advancements in computational and earth systems modeling have enabled increasingly high fidelity models of hydrologic systems, which are critical for our ability to understand and predict the hydrological cycle. However, many of these models do not incorporate the effect of human built structures such as dams. By not accounting for these impacts, our models are limited both in their accuracy and in the scope of questions they are able to investigate. Therefore, we present a methodology to implement dams and reservoirs in ParFlow-an integrated hydrologic model. We will do this by 1) reviewing current methodologies of implementing reservoir modules in hydrological models and 2) changing the Parflow base code to add a reservoir module capable of integrating with a newly minted dataset of historical reservoir operations: ResOpsUS. Our results will improve current Parflow models and, as ParFlow’s integrated solver is well suited to capture surface-ground water interactions, they will enable us to ask new questions regarding conjunctive management of ground and surface water.</t>
   </si>
   <si>
     <t>Dr. Xubin Zeng</t>
@@ -1120,6 +1117,9 @@
   </si>
   <si>
     <t>Noonan - P12</t>
+  </si>
+  <si>
+    <t>Quantifying the degree of turbulent coupling of the atmospheric boundary layer is critical for understanding the evolution of low clouds and explaining the vertical distribution of aerosols. In this study, the methodology of previous studies investigating the extent of coupling for marine stratocumulus clouds through vertical profiles of temperature and moisture is revisited using aircraft data from the NASA Aerosol Cloud meTeorology Interactions oVer western ATlantic Experiment (ACTIVATE). The ACTIVATE campaign employs two aircraft that are spatially coordinated over the northwest Atlantic, with the low-flying plane (HU-25 Falcon) capturing data along level legs, including a leg close to the ocean surface (~150 m above sea level; called MinAlt) and a leg immediately below cloud base (BCB). Past studies have relied on the differences in total water mixing ratio (qt) and liquid water potential temperature (θℓ) between the Lifting Condensation Level (LCL) and the mean cloud base height for assessing the boundary layer coupling. The goal of this study is to determine the applicability of previous methodology to the ACTIVATE dataset and to evaluate the extent of coupling based on seasonality since the flights covered winter and summer deployments between 2020 and 2022. In addition, this work characterizes vertical profiles of aerosol properties and concentrations of cloud water species for validation of the different extents of coupling.  Analysis shows that (i) MinAlt and BCB data accurately represent the LCL and cloud base levels, respectively, and (ii) thresholds of qt and θℓ used in previous studies to select coupling cases provide a relatively accurate estimate for the Northwest Atlantic and can be confirmed through cloud water species concentrations with weaker confirmation from aerosol properties.</t>
   </si>
 </sst>
 </file>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:AE990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1642,10 +1642,10 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -1654,26 +1654,26 @@
         <v>34</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="8"/>
@@ -1686,10 +1686,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -1698,7 +1698,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>23</v>
@@ -1707,17 +1707,17 @@
         <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="8"/>
@@ -1728,10 +1728,10 @@
         <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -1770,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1782,26 +1782,26 @@
         <v>34</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="L5" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="8"/>
@@ -1812,10 +1812,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -1824,7 +1824,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>27</v>
@@ -1833,20 +1833,20 @@
         <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P6" s="8"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -1868,28 +1868,28 @@
         <v>34</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1900,10 +1900,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="G8" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="N8" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O8" s="2"/>
     </row>
@@ -1942,10 +1942,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -1954,29 +1954,29 @@
         <v>34</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P9" s="8"/>
     </row>
@@ -1986,10 +1986,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -1998,25 +1998,25 @@
         <v>34</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="N10" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2028,10 +2028,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -2040,29 +2040,29 @@
         <v>34</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P11" s="8"/>
     </row>
@@ -2074,10 +2074,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -2086,25 +2086,25 @@
         <v>34</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K12" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="K12" s="19" t="s">
-        <v>221</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O12" s="2"/>
     </row>
@@ -2114,10 +2114,10 @@
         <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -2126,26 +2126,26 @@
         <v>34</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="8"/>
@@ -2156,10 +2156,10 @@
         <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -2168,25 +2168,25 @@
         <v>34</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="L14" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -2196,10 +2196,10 @@
         <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
@@ -2208,28 +2208,28 @@
         <v>34</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K15" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="O15" s="25" t="s">
         <v>271</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="O15" s="25" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2240,10 +2240,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -2252,26 +2252,26 @@
         <v>20</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>141</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="8"/>
@@ -2282,10 +2282,10 @@
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -2294,28 +2294,28 @@
         <v>20</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17" s="2" t="s">
+      <c r="N17" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2326,10 +2326,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -2338,25 +2338,25 @@
         <v>20</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="L18" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="N18" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -2369,7 +2369,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>18</v>
@@ -2387,19 +2387,19 @@
         <v>25</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="N19" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2410,10 +2410,10 @@
         <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -2422,26 +2422,26 @@
         <v>20</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="L20" s="16" t="s">
         <v>229</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>230</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="15"/>
@@ -2457,7 +2457,7 @@
         <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -2466,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>18</v>
@@ -2475,17 +2475,17 @@
         <v>38</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="12"/>
@@ -2496,10 +2496,10 @@
         <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>18</v>
@@ -2517,16 +2517,16 @@
         <v>38</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="L22" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O22" s="2"/>
     </row>
@@ -2538,10 +2538,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -2550,25 +2550,25 @@
         <v>20</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="L23" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="N23" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O23" s="2"/>
     </row>
@@ -2578,10 +2578,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -2590,26 +2590,26 @@
         <v>20</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="8"/>
@@ -2622,10 +2622,10 @@
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
@@ -2634,7 +2634,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>18</v>
@@ -2646,16 +2646,16 @@
         <v>39</v>
       </c>
       <c r="K25" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="N25" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2664,10 +2664,10 @@
         <v>50</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -2676,7 +2676,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>18</v>
@@ -2685,19 +2685,19 @@
         <v>38</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="L26" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="N26" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2708,10 +2708,10 @@
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
@@ -2720,7 +2720,7 @@
         <v>17</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>18</v>
@@ -2729,16 +2729,16 @@
         <v>25</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="N27" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="23">
@@ -2751,10 +2751,10 @@
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
@@ -2763,26 +2763,26 @@
         <v>17</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L28" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="8">
@@ -2797,10 +2797,10 @@
         <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
@@ -2809,25 +2809,25 @@
         <v>17</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="23">
@@ -2840,10 +2840,10 @@
         <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>21</v>
@@ -2852,27 +2852,27 @@
         <v>22</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P30" s="8">
         <v>0.59375</v>
@@ -2889,7 +2889,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>16</v>
@@ -2898,26 +2898,26 @@
         <v>24</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K31" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="L31" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="8">
@@ -2930,10 +2930,10 @@
         <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>31</v>
@@ -2942,7 +2942,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>18</v>
@@ -2951,19 +2951,19 @@
         <v>36</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K32" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="P32" s="23">
         <v>0.58333333333333337</v>
@@ -2977,10 +2977,10 @@
         <v>21</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>16</v>
@@ -2989,28 +2989,28 @@
         <v>22</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="P33" s="23">
         <v>0.5625</v>
@@ -3022,10 +3022,10 @@
         <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
@@ -3034,25 +3034,25 @@
         <v>17</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L34" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="K34" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>179</v>
-      </c>
       <c r="N34" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="23">
@@ -3083,19 +3083,19 @@
         <v>18</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K35" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K35" s="19" t="s">
+      <c r="L35" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="N35" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="23">
@@ -3108,10 +3108,10 @@
         <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>16</v>
@@ -3120,7 +3120,7 @@
         <v>24</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>18</v>
@@ -3129,16 +3129,16 @@
         <v>38</v>
       </c>
       <c r="J36" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="L36" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="L36" s="16" t="s">
-        <v>202</v>
-      </c>
       <c r="N36" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="23">
@@ -3151,10 +3151,10 @@
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>16</v>
@@ -3163,28 +3163,28 @@
         <v>22</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="K37" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L37" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="P37" s="23">
         <v>0.57291666666666663</v>
@@ -3198,10 +3198,10 @@
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>16</v>
@@ -3210,26 +3210,26 @@
         <v>22</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="8">
@@ -3242,10 +3242,10 @@
         <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>16</v>
@@ -3254,28 +3254,28 @@
         <v>24</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J39" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="K39" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="K39" s="19" t="s">
+      <c r="L39" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="N39" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O39" s="16" t="s">
         <v>261</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="O39" s="16" t="s">
-        <v>262</v>
       </c>
       <c r="P39" s="8">
         <v>0.41666666666666669</v>
@@ -8267,32 +8267,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
